--- a/medicine/Enfance/Audrey_Poussier/Audrey_Poussier.xlsx
+++ b/medicine/Enfance/Audrey_Poussier/Audrey_Poussier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Audrey Poussier (née en 1978) est une auteure et illustratrice française de littérature jeunesse.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a grandi en Bretagne. Formée à l'école Estienne et à l'École des Beaux-Arts de Paris, elle y apprend notamment la gravure. Dès 2003, elle publie pour la jeunesse[1],[2]. Son album Mon pull (2006) — récompensé de plusieurs prix, dont le Prix Sorcières[3] —  et sa suite Une farce (2007) sont ses principaux titres, réédités à plusieurs reprises[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a grandi en Bretagne. Formée à l'école Estienne et à l'École des Beaux-Arts de Paris, elle y apprend notamment la gravure. Dès 2003, elle publie pour la jeunesse,. Son album Mon pull (2006) — récompensé de plusieurs prix, dont le Prix Sorcières —  et sa suite Une farce (2007) sont ses principaux titres, réédités à plusieurs reprises.
 </t>
         </is>
       </c>
@@ -542,15 +556,52 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle a participé à de nombreuses œuvres[5],[6], dont :
-Auteure et illustratrice
-Cherche amis (2004)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a participé à de nombreuses œuvres dont :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Audrey_Poussier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Audrey_Poussier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auteure et illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cherche amis (2004)
 La Première Nuit dehors (2005)
 Mon pull (2006)
 La Piscine (2006)
-Une farce[4] (2007)
+Une farce (2007)
 Le Rendez-vous (2007)
 Le Chagrin (2008)
 Le Spectacle (2008)
@@ -562,9 +613,43 @@
 Le Bain d'Abel, l'École des loisirs, 2014
 Castor-Têtu, l'École des loisirs, 2015
 Tout le monde dort ?, l'École des loisirs, 2018
-Trois chatons dans la nuit[7], L'école des loisirs, 2023
-Illustratrice
-Textes de divers auteurs (à ajouter)
+Trois chatons dans la nuit, L'école des loisirs, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Audrey_Poussier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Audrey_Poussier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Textes de divers auteurs (à ajouter)
 Serrez sardines ! (2003)
 Carlotta et les monstres (2006)
 Le Peuple doudou (2006)
@@ -585,38 +670,40 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Audrey_Poussier</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Audrey_Poussier</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Prix de la Semaine Paul Hurtmans du livre de jeunesse 2006[3] pour Cherche amis
-Prix Sorcières 2007[3] pour Mon pull, L'École des loisirs
- Prix P’tits Mômes 2007[3] pour Mon pull
- Prix Libbylit 2010[3], décerné par l'IBBY pour  J'ai pas dit partez ! 
-Prix Sorcières 2010[3] pour Vérité, vérité chérie de Valérie Zenatti, qu'elle a illustré
-Prix Ficelle 2015[3] pour Le Bain d'Abel</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Prix de la Semaine Paul Hurtmans du livre de jeunesse 2006 pour Cherche amis
+Prix Sorcières 2007 pour Mon pull, L'École des loisirs
+ Prix P’tits Mômes 2007 pour Mon pull
+ Prix Libbylit 2010, décerné par l'IBBY pour  J'ai pas dit partez ! 
+Prix Sorcières 2010 pour Vérité, vérité chérie de Valérie Zenatti, qu'elle a illustré
+Prix Ficelle 2015 pour Le Bain d'Abel</t>
         </is>
       </c>
     </row>
